--- a/validation/meshDB.xlsx
+++ b/validation/meshDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryshan/Toby Playpad Dropbox/Shannon Ryan/GitHub/pyBLOSSUM/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/shannon_ryan_deakin_edu_au/Documents/Documents/GitHub/pyBLOSSUM/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652942FB-84F0-6E4C-9C38-454475E0A4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{652942FB-84F0-6E4C-9C38-454475E0A4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E34DEB-E973-4802-A366-AE8087253758}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="2" xr2:uid="{E3B040CA-69B4-9245-BC18-5CDDCAF2FE7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3B040CA-69B4-9245-BC18-5CDDCAF2FE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="BLC" sheetId="3" r:id="rId1"/>
@@ -437,7 +437,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7000,7 +7000,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E7FA7087-BD89-B84D-807E-B9B7BEBE2506}">
   <sheetPr codeName="Chart1"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7011,7 +7011,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308439" cy="6071040"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7364,12 +7364,12 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>102</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>2.851</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>0.50780000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>2.851</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>97</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>101</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.1</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>61.373964895541398</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.2</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>38.663175143700805</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.3</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>29.505524832885516</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.4</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>24.356274109660443</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.5</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>20.989600744711158</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.6</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>18.587315912574187</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.7</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>16.772024465579872</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.8</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>15.343491223885351</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.9</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>14.184776837307904</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>13.222619903575348</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1.1000000000000001</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>12.408588727907652</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1.2</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>11.709275289649078</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1.3</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>11.10082558321866</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1.4</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>10.565713336767946</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1.5</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>10.09074755166124</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1.6</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>9.6657937859252012</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1.7</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>9.2829262400947279</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1.8</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>8.9358494626927243</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1.9</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>8.6194941639929183</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>8.3297285756367483</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2.1</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>8.0631483595559708</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2.2000000000000002</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>7.8169210688895472</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2.2999999999999998</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>7.5886692256086654</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2.4</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>7.3763812082213791</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2.5</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>7.1783424807606719</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2.6</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>6.9930819117543601</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>2.7</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>6.8193294328379332</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2.8</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>6.6559823200744654</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>2.9</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>6.5020781037111846</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>6.3567726247565748</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3.1</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>6.2193221252710416</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3.2</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>6.0890685274151091</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>3.3</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>5.965427253648719</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>3.4</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>5.8478770872584072</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>3.5</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>5.7359516826429324</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>3.6</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>5.6292324183691766</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>3.7</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>5.5273423499209366</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>3.8</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>5.4299410683303435</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>3.9</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>5.3367203091515316</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>5.2474001861777886</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>4.0999999999999996</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>5.1617259478890318</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>4.2</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>5.079465173314941</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4.3</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>5.0004053389135494</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>4.4000000000000004</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>4.9243517000303374</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>4.5</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>4.8511254401546537</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>4.5999999999999996</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>4.7805620490168934</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>4.7</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>4.7125098969477994</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>4.8</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>4.6468289781435477</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>4.9000000000000004</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>4.5833897997755946</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>5</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>4.5220723974324795</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>5.0999999999999996</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>4.4627654603239977</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5.2</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>4.4053655521292017</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5.3</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>4.3497764154186127</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>5.4</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>4.2959083493000918</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>5.5</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>4.2436776513851369</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>5.6</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>4.1775482724438024</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>5.7</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>4.110842927365371</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>5.8</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>4.0441375822869396</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>5.9</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>3.9774322372085078</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>5.9999999999999947</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>3.910726892130076</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>6.0999999999999943</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>3.8440215470516446</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>6.199999999999994</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>3.7773162019732127</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>6.2999999999999936</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>3.7106108568947813</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>6.3999999999999932</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>3.6439055118163495</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>6.4999999999999929</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>3.5772001667379181</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>6.5999999999999925</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>3.5104948216594862</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>6.6999999999999922</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>3.4437894765810544</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>6.7999999999999918</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>3.377084131502623</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>6.8999999999999915</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>3.3103787864241916</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>6.9999999999999911</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>3.2436734413457597</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>7.0999999999999908</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>3.1769680962673279</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.1999999999999904</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>3.1102627511888965</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>7.2999999999999901</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>3.0435574061104651</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>7.3999999999999897</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>2.9768520610320333</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>7.4999999999999893</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>2.9101467159536014</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>7.599999999999989</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>2.84344137087517</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>7.6999999999999886</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>2.7767360257967382</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>7.7999999999999883</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>2.7100306807183063</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>7.8999999999999879</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>2.6433253356398749</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>7.9999999999999876</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>2.5766199905614435</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>8.0999999999999872</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>2.5099146454830117</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>8.1999999999999869</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>2.4432093004045798</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>8.2999999999999865</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>2.3765039553261484</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>8.3999999999999861</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>2.309798610247717</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>8.4999999999999858</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>2.2430932651692852</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>8.5999999999999854</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>2.1763879200908534</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>8.6999999999999851</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>2.109682575012422</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>8.7999999999999847</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>2.0429772299339901</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>8.8999999999999844</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>1.9762718848555587</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>8.999999999999984</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>1.9095665397771269</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>9.0999999999999837</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>1.8428611946986955</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>9.1999999999999833</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>1.7761558496202636</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>9.2999999999999829</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>1.7094505045418322</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>9.3999999999999826</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>1.6427451594634004</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>9.4999999999999822</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>1.5760398143849685</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>9.5999999999999819</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>1.5093344693065371</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>9.6999999999999815</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>1.4426291242281053</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>9.7999999999999812</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>1.3759237791496739</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>9.8999999999999808</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>1.3092184340712421</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>9.9999999999999805</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>1.2425130889928107</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>10.1</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>1.2117672123282288</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>10.199999999999999</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>1.2077941765548714</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>10.3</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>1.203872739287442</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>10.4</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>1.2000017391245357</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>10.5</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>1.1961800516528798</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>10.6</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>1.1924065879304298</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>10.7</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>1.1886802930453109</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>10.8</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>1.1850001447461478</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>10.9</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>1.1813651521396189</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>11</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>1.1777743544513521</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>11.1</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>1.1742268198465415</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>11.2</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>1.1707216443068897</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>11.3</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>1.1672579505607181</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>11.4</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>1.1638348870632758</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>11.5</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>1.1604516270244816</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>11.6</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>1.1571073674814918</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>11.7</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>1.1538013284136694</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>11.8</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>1.1505327518976707</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>11.9</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>1.1473009013005004</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>12</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>1.1441050605085406</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>12.1</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>1.1409445331906474</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>12.2</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>1.1378186420935577</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>12.3</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>1.1347267283679285</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>12.4</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>1.1316681509234421</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>12.5</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>1.1286422858115022</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>12.6</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>1.1256485256341295</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>12.7</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>1.1226862789777448</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>12.8</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>1.1197549698706075</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>12.9</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>1.1168540372627447</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>13</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>1.113982934527272</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>13.1</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>1.1111411289820659</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>13.2</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>1.1083281014308177</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>13.3</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>1.1055433457225314</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>13.4</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>1.1027863683286039</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>13.5</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>1.1000566879366496</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>13.6</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>1.0973538350602972</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>13.7</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>1.0946773516642125</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>13.8</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>1.0920267908036467</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>13.9</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>1.0894017162778524</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>14</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>1.0868017022967305</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>14.1</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>1.084226333160119</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>14.2</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>1.0816752029491556</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>14.3</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>1.0791479152291765</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>14.4</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>1.0766440827636459</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>14.5</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>1.0741633272386339</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>14.6</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>1.0717052789973791</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>14.7</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>1.0692695767845044</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>14.8</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>1.066855867499473</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>14.9</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>1.0644638059588885</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>15</v>
       </c>
@@ -9737,313 +9737,313 @@
         <v>1.0620930546672631</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" s="1"/>
     </row>
   </sheetData>
@@ -10056,17 +10056,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>2.851</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>0.50780000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>2.851</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.1</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>61.439179960118402</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.2</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>38.704258060016201</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.3</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>29.536876965840101</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.4</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>24.382154725188901</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.5</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>21.011903983068699</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.6</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>18.6070665187085</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.7</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>16.789846169953499</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.8</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>15.3597949900296</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.9</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>14.199849370735199</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>13.236670063319099</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1.1000000000000001</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>12.4217739102008</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1.2</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>11.7217173918574</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1.3</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>11.112621155795701</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1.4</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>10.576940307010601</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1.5</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>10.101469830307099</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1.6</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>9.6760645150040592</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1.7</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>9.2927901397994699</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1.8</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>8.9453445637628999</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1.9</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>8.6286531106160194</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>8.33857962164452</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2.1</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>8.0717161413810192</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2.2000000000000002</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>7.8252272132484597</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2.2999999999999998</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>7.59673283294517</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2.4</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>7.3842192414600296</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2.5</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>7.18597008098555</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.6</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>7.0005126568470697</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2.7</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>6.8265755511242698</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2.8</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>6.6630548681421402</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2.9</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>6.50898711544182</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>3</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>6.3635272370409703</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3.1</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>6.2259306846938403</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>3.2</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>6.0955386812972199</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>3.3</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>5.9717660281476199</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>3.4</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>5.8540909546944402</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3.5</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>5.7420466198045004</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3.6</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>5.6352139572237698</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3.7</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>5.5332156219003998</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3.8</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>5.4357108431530001</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>3.9</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>5.3423910289784704</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>4</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>5.2529759957671702</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>4.0999999999999996</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>5.1672107213038396</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>4.2</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>5.0848625376510803</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>4.3</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>5.0057186954425497</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4.4000000000000004</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>4.9295842430909698</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4.5</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>4.8562801740778996</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4.5999999999999996</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>4.7856418033275698</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>4.7</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>4.7175173400512804</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>4.8</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>4.6517666296771196</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4.9000000000000004</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>4.5882600417793897</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>5</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>4.5268774844742303</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>5.0999999999999996</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>4.4675075286942301</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>5.2</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>4.4100466282085504</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>5.3</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>4.35439842330599</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5.4</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>4.3004731177795801</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>5.5</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>4.2481869202998999</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>5.6</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>4.1819775204059297</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>5.7</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>4.1151911607556899</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5.8</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>4.0484048011054501</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5.9</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>3.9816184414552098</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>6</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>3.9148320818049802</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>6.1</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>3.8480457221547399</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>6.2</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>3.7812593625045001</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>6.3</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>3.7144730028542599</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>6.4</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>3.64768664320402</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>6.5</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>3.58090028355379</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>6.6</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>3.5141139239035502</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>6.7</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>3.4473275642533099</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>6.8</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>3.3805412046030701</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>6.9</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>3.3137548449528298</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>7</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>3.24696848530259</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>7.1</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>3.1801821256523599</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>7.2</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>3.1133957660021201</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>7.3</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>3.0466094063518798</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>7.4</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>2.97982304670164</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>7.5</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>2.9130366870514002</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>7.6</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>2.8462503274011701</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>7.7</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>2.7794639677509299</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.8</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>2.71267760810069</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>7.9</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>2.6458912484504502</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>8</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>2.5791048888002099</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>8.1</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>2.5123185291499701</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>8.1999999999999993</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>2.4455321694997401</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>8.3000000000000007</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>2.3787458098494998</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>8.4</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>2.31195945019926</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>8.5</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>2.2451730905490201</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>8.6</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>2.1783867308987799</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>8.6999999999999993</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>2.1116003712485498</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>8.8000000000000007</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>2.04481401159831</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>8.9</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>1.97802765194807</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>9</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>1.9112412922978299</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>9.1</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>1.8444549326475901</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>9.1999999999999993</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>1.77766857299735</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>9.3000000000000007</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>1.71088221334711</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>9.4</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>1.6440958536968799</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>9.5</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>1.5773094940466399</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>9.6</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>1.5105231343964001</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>9.6999999999999993</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>1.44373677474616</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>9.8000000000000007</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>1.37695041509592</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>9.9</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>1.3101640554456899</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>10</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>1.2433776957954501</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>10.1</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>1.2125957001251899</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>10.199999999999999</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>1.2086199479788999</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>10.3</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>1.20469582961654</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>10.4</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>1.2008221828426699</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>10.5</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>1.1969978824752301</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>10.6</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>1.1932218388276801</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>10.7</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>1.1894929962669001</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>10.8</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>1.1858103318425901</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>10.9</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>1.18217285398395</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>11</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>1.17857960125974</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>11.1</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>1.1750296411980401</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>11.2</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>1.1715220691624799</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>11.3</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>1.1680560072816</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>11.4</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1.1646306034284299</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>11.5</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>1.16124503024762</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>11.6</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>1.1578984842273301</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>11.7</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>1.15459018481363</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>11.8</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>1.15131937356498</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>11.9</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>1.14808531334474</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>12</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>1.1448872875497</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>12.1</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>1.1417245993726099</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>12.2</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>1.1385965710971899</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>12.3</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1.1355025434236301</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>12.4</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>1.1324418748233001</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>12.5</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>1.12941394092101</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>12.6</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>1.12641813390349</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>12.7</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>1.12345386195283</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>12.8</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>1.12052054870347</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>12.9</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>1.1176176327218701</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>13</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>1.1147445670074101</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>13.1</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>1.11190081851376</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>13.2</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>1.10908586768965</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>13.3</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>1.1062992080380201</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>13.4</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>1.1035403456928301</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>13.5</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>1.1008087990126401</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>13.6</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>1.09810409819008</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>13.7</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>1.09542578487666</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>13.8</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>1.09277341182205</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>13.9</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>1.0901465425272701</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>14</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>1.08754475091111</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>14.1</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>1.0849676209891901</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>14.2</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>1.0824147465651199</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>14.3</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>1.0798857309331999</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>14.4</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>1.07738018659214</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>14.5</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>1.07489773496935</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>14.6</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>1.07243800615533</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>14.7</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>1.0700006386477201</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>14.8</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>1.0675852791045599</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>14.9</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>1.0651915821064599</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>15</v>
       </c>
@@ -12430,7 +12430,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12443,294 +12443,294 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>81</v>
       </c>
